--- a/public/downloads/NON-TESTED-RAW-SINGLE-LIFTS.xlsx
+++ b/public/downloads/NON-TESTED-RAW-SINGLE-LIFTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b791772ed41bd66b/Desktop/2023 NEW RECORDS TEMPLATE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1070" documentId="14_{8869EC59-1213-4CF1-BF4D-9D63765F2B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B415851-43BC-48C4-A70F-70B7C37A5972}"/>
+  <xr:revisionPtr revIDLastSave="1074" documentId="14_{8869EC59-1213-4CF1-BF4D-9D63765F2B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D09A3CD2-DCBE-40FE-9097-126786A2C647}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{4154235A-A9CC-3C49-98D1-D24EB0BE76D8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{4154235A-A9CC-3C49-98D1-D24EB0BE76D8}"/>
   </bookViews>
   <sheets>
     <sheet name="MEN OPEN" sheetId="5" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="220">
   <si>
     <t>Weight</t>
   </si>
@@ -719,6 +719,12 @@
   </si>
   <si>
     <t>BPF NORTHEN</t>
+  </si>
+  <si>
+    <t>CHARLOTTE WAREING</t>
+  </si>
+  <si>
+    <t>WOMEN OF IRON</t>
   </si>
 </sst>
 </file>
@@ -726,7 +732,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -836,10 +842,10 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1826,7 +1832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7186C1C6-534A-8649-9BC5-24AFC98A5F9D}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
@@ -6429,8 +6435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7517E2C-6F9F-784C-B257-599DEE4B6BE5}">
   <dimension ref="A1:H481"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E148" sqref="E148"/>
+    <sheetView tabSelected="1" topLeftCell="A283" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H308" sqref="H308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -9109,21 +9115,21 @@
       </c>
       <c r="E304" s="9"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
       <c r="E305" s="9"/>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
       <c r="E306" s="9"/>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="1" t="s">
@@ -9132,16 +9138,27 @@
       <c r="D307" s="1"/>
       <c r="E307" s="9"/>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E308" s="9"/>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E308" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="F308" s="18">
+        <v>45165</v>
+      </c>
+      <c r="G308" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H308" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="1"/>
@@ -9150,21 +9167,21 @@
       </c>
       <c r="E309" s="9"/>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
       <c r="E310" s="9"/>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
       <c r="E311" s="9"/>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="1" t="s">
@@ -9173,7 +9190,7 @@
       <c r="D312" s="1"/>
       <c r="E312" s="9"/>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="1"/>
@@ -9182,7 +9199,7 @@
       </c>
       <c r="E313" s="9"/>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="1"/>
@@ -9191,21 +9208,21 @@
       </c>
       <c r="E314" s="9"/>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
       <c r="E315" s="9"/>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
       <c r="E316" s="9"/>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="1" t="s">
@@ -9214,7 +9231,7 @@
       <c r="D317" s="1"/>
       <c r="E317" s="9"/>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="1"/>
@@ -9223,7 +9240,7 @@
       </c>
       <c r="E318" s="9"/>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="1"/>
@@ -9232,7 +9249,7 @@
       </c>
       <c r="E319" s="9"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="1"/>

--- a/public/downloads/NON-TESTED-RAW-SINGLE-LIFTS.xlsx
+++ b/public/downloads/NON-TESTED-RAW-SINGLE-LIFTS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b791772ed41bd66b/Desktop/2023 NEW RECORDS TEMPLATE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b791772ed41bd66b/Desktop/BRITISH ROLLING  RECORDS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1074" documentId="14_{8869EC59-1213-4CF1-BF4D-9D63765F2B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D09A3CD2-DCBE-40FE-9097-126786A2C647}"/>
+  <xr:revisionPtr revIDLastSave="1092" documentId="14_{8869EC59-1213-4CF1-BF4D-9D63765F2B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD57E149-8573-463E-B20F-B5632C70A51A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{4154235A-A9CC-3C49-98D1-D24EB0BE76D8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{4154235A-A9CC-3C49-98D1-D24EB0BE76D8}"/>
   </bookViews>
   <sheets>
     <sheet name="MEN OPEN" sheetId="5" r:id="rId1"/>
@@ -866,10 +866,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2486,8 +2482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68180E9-570C-BE40-A2EC-46381CEBEE35}">
   <dimension ref="A1:G556"/>
   <sheetViews>
-    <sheetView topLeftCell="A390" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G406" sqref="G406"/>
+    <sheetView tabSelected="1" topLeftCell="A518" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D527" sqref="D527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6435,7 +6431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7517E2C-6F9F-784C-B257-599DEE4B6BE5}">
   <dimension ref="A1:H481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A283" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H308" sqref="H308"/>
     </sheetView>
   </sheetViews>
